--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tnc-Egfr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tnc-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.3418561256448</v>
+        <v>17.21384166666667</v>
       </c>
       <c r="H2">
-        <v>11.3418561256448</v>
+        <v>51.641525</v>
       </c>
       <c r="I2">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266565</v>
       </c>
       <c r="J2">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266566</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.08032284433198</v>
+        <v>1.57413</v>
       </c>
       <c r="N2">
-        <v>1.08032284433198</v>
+        <v>4.72239</v>
       </c>
       <c r="O2">
-        <v>0.01433664785092544</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="P2">
-        <v>0.01433664785092544</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="Q2">
-        <v>12.25286626966068</v>
+        <v>27.09682458275</v>
       </c>
       <c r="R2">
-        <v>12.25286626966068</v>
+        <v>243.87142124475</v>
       </c>
       <c r="S2">
-        <v>0.0004357112504826273</v>
+        <v>0.0009129414394887271</v>
       </c>
       <c r="T2">
-        <v>0.0004357112504826273</v>
+        <v>0.0009129414394887272</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.3418561256448</v>
+        <v>17.21384166666667</v>
       </c>
       <c r="H3">
-        <v>11.3418561256448</v>
+        <v>51.641525</v>
       </c>
       <c r="I3">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266565</v>
       </c>
       <c r="J3">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266566</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.4982525109528</v>
+        <v>62.503947</v>
       </c>
       <c r="N3">
-        <v>62.4982525109528</v>
+        <v>187.511841</v>
       </c>
       <c r="O3">
-        <v>0.8293959923635609</v>
+        <v>0.804011796385049</v>
       </c>
       <c r="P3">
-        <v>0.8293959923635609</v>
+        <v>0.8040117963850492</v>
       </c>
       <c r="Q3">
-        <v>708.8461880834456</v>
+        <v>1075.933047199725</v>
       </c>
       <c r="R3">
-        <v>708.8461880834456</v>
+        <v>9683.397424797526</v>
       </c>
       <c r="S3">
-        <v>0.0252065314525166</v>
+        <v>0.03625014665110703</v>
       </c>
       <c r="T3">
-        <v>0.0252065314525166</v>
+        <v>0.03625014665110703</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.3418561256448</v>
+        <v>17.21384166666667</v>
       </c>
       <c r="H4">
-        <v>11.3418561256448</v>
+        <v>51.641525</v>
       </c>
       <c r="I4">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266565</v>
       </c>
       <c r="J4">
-        <v>0.0303914314568661</v>
+        <v>0.04508658556266566</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>11.7753606251016</v>
+        <v>0.182903</v>
       </c>
       <c r="N4">
-        <v>11.7753606251016</v>
+        <v>0.548709</v>
       </c>
       <c r="O4">
-        <v>0.1562673597855136</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="P4">
-        <v>0.1562673597855136</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="Q4">
-        <v>133.5544460374851</v>
+        <v>3.148463282358334</v>
       </c>
       <c r="R4">
-        <v>133.5544460374851</v>
+        <v>28.336169541225</v>
       </c>
       <c r="S4">
-        <v>0.004749188753866873</v>
+        <v>0.0001060774701624432</v>
       </c>
       <c r="T4">
-        <v>0.004749188753866873</v>
+        <v>0.0001060774701624432</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>344.316357363886</v>
+        <v>17.21384166666667</v>
       </c>
       <c r="H5">
-        <v>344.316357363886</v>
+        <v>51.641525</v>
       </c>
       <c r="I5">
-        <v>0.9226238508388281</v>
+        <v>0.04508658556266565</v>
       </c>
       <c r="J5">
-        <v>0.9226238508388281</v>
+        <v>0.04508658556266566</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.08032284433198</v>
+        <v>0.09380766666666666</v>
       </c>
       <c r="N5">
-        <v>1.08032284433198</v>
+        <v>0.281423</v>
       </c>
       <c r="O5">
-        <v>0.01433664785092544</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="P5">
-        <v>0.01433664785092544</v>
+        <v>0.001206683324996365</v>
       </c>
       <c r="Q5">
-        <v>371.9728265373798</v>
+        <v>1.614790321119445</v>
       </c>
       <c r="R5">
-        <v>371.9728265373798</v>
+        <v>14.533112890075</v>
       </c>
       <c r="S5">
-        <v>0.01322733324834104</v>
+        <v>5.440523097949048E-05</v>
       </c>
       <c r="T5">
-        <v>0.01322733324834104</v>
+        <v>5.440523097949049E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>344.316357363886</v>
+        <v>17.21384166666667</v>
       </c>
       <c r="H6">
-        <v>344.316357363886</v>
+        <v>51.641525</v>
       </c>
       <c r="I6">
-        <v>0.9226238508388281</v>
+        <v>0.04508658556266565</v>
       </c>
       <c r="J6">
-        <v>0.9226238508388281</v>
+        <v>0.04508658556266566</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>62.4982525109528</v>
+        <v>13.38529933333333</v>
       </c>
       <c r="N6">
-        <v>62.4982525109528</v>
+        <v>40.155898</v>
       </c>
       <c r="O6">
-        <v>0.8293959923635609</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="P6">
-        <v>0.8293959923635609</v>
+        <v>0.1721801434738983</v>
       </c>
       <c r="Q6">
-        <v>21519.17064617961</v>
+        <v>230.4124233849389</v>
       </c>
       <c r="R6">
-        <v>21519.17064617961</v>
+        <v>2073.71181046445</v>
       </c>
       <c r="S6">
-        <v>0.7652205243447598</v>
+        <v>0.007763014770927962</v>
       </c>
       <c r="T6">
-        <v>0.7652205243447598</v>
+        <v>0.007763014770927962</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,247 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>344.316357363886</v>
+        <v>346.747152</v>
       </c>
       <c r="H7">
-        <v>344.316357363886</v>
+        <v>1040.241456</v>
       </c>
       <c r="I7">
-        <v>0.9226238508388281</v>
+        <v>0.9082019830315988</v>
       </c>
       <c r="J7">
-        <v>0.9226238508388281</v>
+        <v>0.908201983031599</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.7753606251016</v>
+        <v>1.57413</v>
       </c>
       <c r="N7">
-        <v>11.7753606251016</v>
+        <v>4.72239</v>
       </c>
       <c r="O7">
-        <v>0.1562673597855136</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="P7">
-        <v>0.1562673597855136</v>
+        <v>0.02024862668342525</v>
       </c>
       <c r="Q7">
-        <v>4054.449277081115</v>
+        <v>545.8250943777599</v>
       </c>
       <c r="R7">
-        <v>4054.449277081115</v>
+        <v>4912.42584939984</v>
       </c>
       <c r="S7">
-        <v>0.1441759932457272</v>
+        <v>0.01838984290755336</v>
       </c>
       <c r="T7">
-        <v>0.1441759932457272</v>
+        <v>0.01838984290755336</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.5343471090724</v>
+        <v>346.747152</v>
       </c>
       <c r="H8">
-        <v>17.5343471090724</v>
+        <v>1040.241456</v>
       </c>
       <c r="I8">
-        <v>0.04698471770430578</v>
+        <v>0.9082019830315988</v>
       </c>
       <c r="J8">
-        <v>0.04698471770430578</v>
+        <v>0.908201983031599</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.08032284433198</v>
+        <v>62.503947</v>
       </c>
       <c r="N8">
-        <v>1.08032284433198</v>
+        <v>187.511841</v>
       </c>
       <c r="O8">
-        <v>0.01433664785092544</v>
+        <v>0.804011796385049</v>
       </c>
       <c r="P8">
-        <v>0.01433664785092544</v>
+        <v>0.8040117963850492</v>
       </c>
       <c r="Q8">
-        <v>18.94275574237732</v>
+        <v>21673.06561100894</v>
       </c>
       <c r="R8">
-        <v>18.94275574237732</v>
+        <v>195057.5904990805</v>
       </c>
       <c r="S8">
-        <v>0.0006736033521017741</v>
+        <v>0.7302051078576997</v>
       </c>
       <c r="T8">
-        <v>0.0006736033521017741</v>
+        <v>0.7302051078576999</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.5343471090724</v>
+        <v>346.747152</v>
       </c>
       <c r="H9">
-        <v>17.5343471090724</v>
+        <v>1040.241456</v>
       </c>
       <c r="I9">
-        <v>0.04698471770430578</v>
+        <v>0.9082019830315988</v>
       </c>
       <c r="J9">
-        <v>0.04698471770430578</v>
+        <v>0.908201983031599</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>62.4982525109528</v>
+        <v>0.182903</v>
       </c>
       <c r="N9">
-        <v>62.4982525109528</v>
+        <v>0.548709</v>
       </c>
       <c r="O9">
-        <v>0.8293959923635609</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="P9">
-        <v>0.8293959923635609</v>
+        <v>0.002352750132631058</v>
       </c>
       <c r="Q9">
-        <v>1095.866053237502</v>
+        <v>63.421094342256</v>
       </c>
       <c r="R9">
-        <v>1095.866053237502</v>
+        <v>570.789849080304</v>
       </c>
       <c r="S9">
-        <v>0.03896893656628446</v>
+        <v>0.002136772336033384</v>
       </c>
       <c r="T9">
-        <v>0.03896893656628446</v>
+        <v>0.002136772336033385</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>346.747152</v>
+      </c>
+      <c r="H10">
+        <v>1040.241456</v>
+      </c>
+      <c r="I10">
+        <v>0.9082019830315988</v>
+      </c>
+      <c r="J10">
+        <v>0.908201983031599</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.09380766666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.281423</v>
+      </c>
+      <c r="O10">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="P10">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="Q10">
+        <v>32.52754125243199</v>
+      </c>
+      <c r="R10">
+        <v>292.747871271888</v>
+      </c>
+      <c r="S10">
+        <v>0.001095912188652862</v>
+      </c>
+      <c r="T10">
+        <v>0.001095912188652862</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>346.747152</v>
+      </c>
+      <c r="H11">
+        <v>1040.241456</v>
+      </c>
+      <c r="I11">
+        <v>0.9082019830315988</v>
+      </c>
+      <c r="J11">
+        <v>0.908201983031599</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>13.38529933333333</v>
+      </c>
+      <c r="N11">
+        <v>40.155898</v>
+      </c>
+      <c r="O11">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="P11">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="Q11">
+        <v>4641.314422500832</v>
+      </c>
+      <c r="R11">
+        <v>41771.82980250749</v>
+      </c>
+      <c r="S11">
+        <v>0.1563743477416596</v>
+      </c>
+      <c r="T11">
+        <v>0.1563743477416596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.042542</v>
+      </c>
+      <c r="H12">
+        <v>0.127626</v>
+      </c>
+      <c r="I12">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="J12">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.57413</v>
+      </c>
+      <c r="N12">
+        <v>4.72239</v>
+      </c>
+      <c r="O12">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="P12">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="Q12">
+        <v>0.06696663846000001</v>
+      </c>
+      <c r="R12">
+        <v>0.6026997461400001</v>
+      </c>
+      <c r="S12">
+        <v>2.25622818373757E-06</v>
+      </c>
+      <c r="T12">
+        <v>2.25622818373757E-06</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.042542</v>
+      </c>
+      <c r="H13">
+        <v>0.127626</v>
+      </c>
+      <c r="I13">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="J13">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>62.503947</v>
+      </c>
+      <c r="N13">
+        <v>187.511841</v>
+      </c>
+      <c r="O13">
+        <v>0.804011796385049</v>
+      </c>
+      <c r="P13">
+        <v>0.8040117963850492</v>
+      </c>
+      <c r="Q13">
+        <v>2.659042913274</v>
+      </c>
+      <c r="R13">
+        <v>23.931386219466</v>
+      </c>
+      <c r="S13">
+        <v>8.958800532118649E-05</v>
+      </c>
+      <c r="T13">
+        <v>8.958800532118652E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.042542</v>
+      </c>
+      <c r="H14">
+        <v>0.127626</v>
+      </c>
+      <c r="I14">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="J14">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.182903</v>
+      </c>
+      <c r="N14">
+        <v>0.548709</v>
+      </c>
+      <c r="O14">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="P14">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="Q14">
+        <v>0.007781059426000001</v>
+      </c>
+      <c r="R14">
+        <v>0.07002953483400001</v>
+      </c>
+      <c r="S14">
+        <v>2.62158083188906E-07</v>
+      </c>
+      <c r="T14">
+        <v>2.621580831889061E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.042542</v>
+      </c>
+      <c r="H15">
+        <v>0.127626</v>
+      </c>
+      <c r="I15">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="J15">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.09380766666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.281423</v>
+      </c>
+      <c r="O15">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="P15">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="Q15">
+        <v>0.003990765755333333</v>
+      </c>
+      <c r="R15">
+        <v>0.035916891798</v>
+      </c>
+      <c r="S15">
+        <v>1.344561766715536E-07</v>
+      </c>
+      <c r="T15">
+        <v>1.344561766715536E-07</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.042542</v>
+      </c>
+      <c r="H16">
+        <v>0.127626</v>
+      </c>
+      <c r="I16">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="J16">
+        <v>0.000111426232455776</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>13.38529933333333</v>
+      </c>
+      <c r="N16">
+        <v>40.155898</v>
+      </c>
+      <c r="O16">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="P16">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="Q16">
+        <v>0.5694374042386667</v>
+      </c>
+      <c r="R16">
+        <v>5.124936638148001</v>
+      </c>
+      <c r="S16">
+        <v>1.918538469099144E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.918538469099145E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06491533333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.194746</v>
+      </c>
+      <c r="I17">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="J17">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.57413</v>
+      </c>
+      <c r="N17">
+        <v>4.72239</v>
+      </c>
+      <c r="O17">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="P17">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="Q17">
+        <v>0.10218517366</v>
+      </c>
+      <c r="R17">
+        <v>0.9196665629399999</v>
+      </c>
+      <c r="S17">
+        <v>3.442804866329406E-06</v>
+      </c>
+      <c r="T17">
+        <v>3.442804866329406E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06491533333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.194746</v>
+      </c>
+      <c r="I18">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="J18">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>62.503947</v>
+      </c>
+      <c r="N18">
+        <v>187.511841</v>
+      </c>
+      <c r="O18">
+        <v>0.804011796385049</v>
+      </c>
+      <c r="P18">
+        <v>0.8040117963850492</v>
+      </c>
+      <c r="Q18">
+        <v>4.057464554154</v>
+      </c>
+      <c r="R18">
+        <v>36.517180987386</v>
+      </c>
+      <c r="S18">
+        <v>0.000136703380849355</v>
+      </c>
+      <c r="T18">
+        <v>0.000136703380849355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>17.5343471090724</v>
-      </c>
-      <c r="H10">
-        <v>17.5343471090724</v>
-      </c>
-      <c r="I10">
-        <v>0.04698471770430578</v>
-      </c>
-      <c r="J10">
-        <v>0.04698471770430578</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>11.7753606251016</v>
-      </c>
-      <c r="N10">
-        <v>11.7753606251016</v>
-      </c>
-      <c r="O10">
-        <v>0.1562673597855136</v>
-      </c>
-      <c r="P10">
-        <v>0.1562673597855136</v>
-      </c>
-      <c r="Q10">
-        <v>206.4732605350352</v>
-      </c>
-      <c r="R10">
-        <v>206.4732605350352</v>
-      </c>
-      <c r="S10">
-        <v>0.007342177785919544</v>
-      </c>
-      <c r="T10">
-        <v>0.007342177785919544</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06491533333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.194746</v>
+      </c>
+      <c r="I19">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="J19">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.182903</v>
+      </c>
+      <c r="N19">
+        <v>0.548709</v>
+      </c>
+      <c r="O19">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="P19">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="Q19">
+        <v>0.01187320921266667</v>
+      </c>
+      <c r="R19">
+        <v>0.106858882914</v>
+      </c>
+      <c r="S19">
+        <v>4.000300727806771E-07</v>
+      </c>
+      <c r="T19">
+        <v>4.000300727806771E-07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.06491533333333334</v>
+      </c>
+      <c r="H20">
+        <v>0.194746</v>
+      </c>
+      <c r="I20">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="J20">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.09380766666666666</v>
+      </c>
+      <c r="N20">
+        <v>0.281423</v>
+      </c>
+      <c r="O20">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="P20">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="Q20">
+        <v>0.006089555950888889</v>
+      </c>
+      <c r="R20">
+        <v>0.054806003558</v>
+      </c>
+      <c r="S20">
+        <v>2.051682461416826E-07</v>
+      </c>
+      <c r="T20">
+        <v>2.051682461416826E-07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.06491533333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.194746</v>
+      </c>
+      <c r="I21">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="J21">
+        <v>0.0001700265860078083</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>13.38529933333333</v>
+      </c>
+      <c r="N21">
+        <v>40.155898</v>
+      </c>
+      <c r="O21">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="P21">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="Q21">
+        <v>0.8689111679897779</v>
+      </c>
+      <c r="R21">
+        <v>7.820200511908</v>
+      </c>
+      <c r="S21">
+        <v>2.927520197320154E-05</v>
+      </c>
+      <c r="T21">
+        <v>2.927520197320154E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>17.72674266666667</v>
+      </c>
+      <c r="H22">
+        <v>53.180228</v>
+      </c>
+      <c r="I22">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="J22">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.57413</v>
+      </c>
+      <c r="N22">
+        <v>4.72239</v>
+      </c>
+      <c r="O22">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="P22">
+        <v>0.02024862668342525</v>
+      </c>
+      <c r="Q22">
+        <v>27.90419743388</v>
+      </c>
+      <c r="R22">
+        <v>251.13777690492</v>
+      </c>
+      <c r="S22">
+        <v>0.0009401433033330969</v>
+      </c>
+      <c r="T22">
+        <v>0.0009401433033330971</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>17.72674266666667</v>
+      </c>
+      <c r="H23">
+        <v>53.180228</v>
+      </c>
+      <c r="I23">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="J23">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>62.503947</v>
+      </c>
+      <c r="N23">
+        <v>187.511841</v>
+      </c>
+      <c r="O23">
+        <v>0.804011796385049</v>
+      </c>
+      <c r="P23">
+        <v>0.8040117963850492</v>
+      </c>
+      <c r="Q23">
+        <v>1107.991384119972</v>
+      </c>
+      <c r="R23">
+        <v>9971.922457079749</v>
+      </c>
+      <c r="S23">
+        <v>0.03733025049007185</v>
+      </c>
+      <c r="T23">
+        <v>0.03733025049007187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>17.72674266666667</v>
+      </c>
+      <c r="H24">
+        <v>53.180228</v>
+      </c>
+      <c r="I24">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="J24">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.182903</v>
+      </c>
+      <c r="N24">
+        <v>0.548709</v>
+      </c>
+      <c r="O24">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="P24">
+        <v>0.002352750132631058</v>
+      </c>
+      <c r="Q24">
+        <v>3.242274413961333</v>
+      </c>
+      <c r="R24">
+        <v>29.180469725652</v>
+      </c>
+      <c r="S24">
+        <v>0.0001092381382792612</v>
+      </c>
+      <c r="T24">
+        <v>0.0001092381382792612</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>17.72674266666667</v>
+      </c>
+      <c r="H25">
+        <v>53.180228</v>
+      </c>
+      <c r="I25">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="J25">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.09380766666666666</v>
+      </c>
+      <c r="N25">
+        <v>0.281423</v>
+      </c>
+      <c r="O25">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="P25">
+        <v>0.001206683324996365</v>
+      </c>
+      <c r="Q25">
+        <v>1.662904367160444</v>
+      </c>
+      <c r="R25">
+        <v>14.966139304444</v>
+      </c>
+      <c r="S25">
+        <v>5.60262809411993E-05</v>
+      </c>
+      <c r="T25">
+        <v>5.60262809411993E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>17.72674266666667</v>
+      </c>
+      <c r="H26">
+        <v>53.180228</v>
+      </c>
+      <c r="I26">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="J26">
+        <v>0.04642997858727192</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>13.38529933333333</v>
+      </c>
+      <c r="N26">
+        <v>40.155898</v>
+      </c>
+      <c r="O26">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="P26">
+        <v>0.1721801434738983</v>
+      </c>
+      <c r="Q26">
+        <v>237.2777567983049</v>
+      </c>
+      <c r="R26">
+        <v>2135.499811184744</v>
+      </c>
+      <c r="S26">
+        <v>0.007994320374646502</v>
+      </c>
+      <c r="T26">
+        <v>0.007994320374646504</v>
       </c>
     </row>
   </sheetData>
